--- a/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
+++ b/Companies/IT Services & Consulting/HCL Technologies Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,15 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="73" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '14</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '15</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '15</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '15</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '15</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '15</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '15</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '14</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>4,247.59</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4,385.95</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4,465.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4,350.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>4,471.85</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4,350.15</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4,465.50</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4,385.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4,247.59</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>4471.85</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>4247.59</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>4384.208000000001</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>4,247.59</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4,385.95</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4,465.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4,350.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>4,471.85</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>4,350.15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4,465.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4,385.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4,247.59</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>4471.85</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>4247.59</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>4384.208000000001</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>111.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>47.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>37.18</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>47.60</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>111.33</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>111.33</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>37.18</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>65.37</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>-25.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-28.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>-16.08</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-28.09</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-25.39</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>-16.08</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>-28.09</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>-23.18666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>1,457.59</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1,535.66</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,563.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,635.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1,651.37</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,635.14</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1,563.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1,535.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1,457.59</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1651.37</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>1457.59</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1568.6</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>72.28</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>74.52</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>95.71</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>83.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>74.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>72.28</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>95.70999999999999</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>72.28</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>82.93199999999999</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>924.99</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,101.37</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,243.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,115.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,010.95</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,115.68</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,243.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,101.37</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>924.99</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1243.3</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>924.99</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1079.258</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>1,792.73</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,674.40</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1,489.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1,491.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>1,692.72</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1,491.44</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1,489.25</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1,674.40</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1,792.73</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1792.73</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1489.25</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>1628.108</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>253.08</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>251.97</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>204.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>268.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>361.13</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>268.11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>204.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>251.97</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>253.08</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>361.13</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>204.61</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>267.78</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2,045.81</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,926.37</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1,693.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1,759.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,053.85</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1,759.55</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1,693.86</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,926.37</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2,045.81</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2053.85</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1693.86</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>1895.888</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>14.74</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>16.65</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14.47</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>12.21</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>12.47</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>14.108</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,033.34</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,914.16</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,679.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,742.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,039.11</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1,742.90</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,679.39</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,914.16</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,033.34</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2039.11</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1679.39</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1881.78</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>2,033.34</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,914.16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,679.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,742.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2,039.11</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,742.90</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,679.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,914.16</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2,033.34</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>2039.11</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1679.39</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1881.78</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>369.87</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>349.42</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>244.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>343.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>389.45</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>343.61</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>244.22</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>349.42</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>369.87</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>389.45</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>244.22</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>339.314</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,663.47</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1,564.74</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,435.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,399.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,649.66</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,399.29</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,435.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1,564.74</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,663.47</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1663.47</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1399.29</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1542.466</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,663.47</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1,564.74</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1,435.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,399.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,649.66</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,399.29</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1,435.17</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1,564.74</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,663.47</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>1663.47</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1399.29</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1542.466</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>140.47</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>281.14</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>281.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>281.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>281.86</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>281.25</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>281.20</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>281.14</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>140.47</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>281.86</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>140.47</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>253.184</v>
       </c>
     </row>
     <row r="21">
@@ -1209,12 +1033,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>16,866.69</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>17,696.73</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1224,22 +1048,13 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17,696.73</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>16,866.69</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>19124.53</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>16866.69</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>17895.98333333333</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="22"/>
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>11.72</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>11.13</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>23.71</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>23.71</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>13.344</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>11.68</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>23.57</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>13.276</v>
       </c>
     </row>
     <row r="26"/>
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>11.72</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>11.13</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>23.71</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>23.71</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>13.344</v>
       </c>
     </row>
     <row r="29">
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>11.68</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>10.15</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>11.08</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>23.57</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>13.276</v>
       </c>
     </row>
     <row r="30"/>
@@ -1438,12 +1217,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>27.09</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>55.40</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1453,22 +1232,13 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>55.40</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>27.09</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>55.43</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>27.09</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>45.97333333333333</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1479,12 +1249,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>38.57</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>39.41</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1494,22 +1264,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>39.41</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>38.57</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>38.57</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>39.13333333333333</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="34"/>
@@ -1544,12 +1305,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>43.15</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>85.17</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1559,22 +1320,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>85.17</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>43.15</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>85.17</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>43.15</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>71.16333333333334</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1585,12 +1337,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1600,22 +1352,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>100</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1626,12 +1369,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>61.43</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>60.59</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1641,22 +1384,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>60.59</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>61.43</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>61.43</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>60.58</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>60.86666666666667</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
   </sheetData>
